--- a/PLSstatic/PLSstatic_predicted_variables_matrix_5.xlsx
+++ b/PLSstatic/PLSstatic_predicted_variables_matrix_5.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3393124968463862</v>
+        <v>-0.4429532900133231</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3342757789222296</v>
+        <v>-1.17415603059391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1683790480777673</v>
+        <v>-0.4101853272517285</v>
       </c>
       <c r="B3" t="n">
-        <v>0.168436367720303</v>
+        <v>-1.013385614170121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1714615525169268</v>
+        <v>-0.3586033861970436</v>
       </c>
       <c r="B4" t="n">
-        <v>0.154989954508743</v>
+        <v>-1.365544662205192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0727383699430038</v>
+        <v>-0.1734839704177584</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.100754247825565</v>
+        <v>-0.8193303804456599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.205081953628321</v>
+        <v>0.03513609728279504</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1767224672241446</v>
+        <v>0.457776570212569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.464672036800898</v>
+        <v>-0.3664153385402119</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4689968539136169</v>
+        <v>-1.015889935153623</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2350786176501513</v>
+        <v>-0.4588279046782437</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2293388745975404</v>
+        <v>-0.9438777771958118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4458839713969668</v>
+        <v>-0.5088885699101326</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4295556980455489</v>
+        <v>-1.399463548034325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3070877714305021</v>
+        <v>-0.5496915104726556</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3333323863326245</v>
+        <v>-0.6387418939734986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.212625728949746</v>
+        <v>-0.2013099989447401</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2526396458368948</v>
+        <v>-0.9596695935839867</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1462983113436138</v>
+        <v>-0.2786618345183196</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1594355423451985</v>
+        <v>-0.7735587113650648</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.02926534158562908</v>
+        <v>0.1403098443297875</v>
       </c>
       <c r="B13" t="n">
-        <v>-8.071609535599024e-05</v>
+        <v>0.08549604127806801</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.02268614093687508</v>
+        <v>-0.1012707993499056</v>
       </c>
       <c r="B14" t="n">
-        <v>0.009688895885146126</v>
+        <v>-0.08894740030580389</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1285436041752142</v>
+        <v>-0.1312857771732901</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.09191097013061073</v>
+        <v>0.1359633195923107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.208736843122371</v>
+        <v>-0.222352436999347</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2550397102925154</v>
+        <v>-0.2291607114116887</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4157710463616282</v>
+        <v>-0.02171540917171313</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4622510542597235</v>
+        <v>0.6350032689937107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1142998524497757</v>
+        <v>0.01678067421590068</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.07939565936532381</v>
+        <v>0.6108036244733044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3566721182912387</v>
+        <v>0.04715014032462234</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3707298508390994</v>
+        <v>0.5365461995492344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1615486287595615</v>
+        <v>-0.1100573300957268</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2050015998209002</v>
+        <v>0.09968061714659676</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4495233801556182</v>
+        <v>-0.1034733988579106</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4583425864323514</v>
+        <v>0.09778291010786846</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2738936564604651</v>
+        <v>0.05956561361441697</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2872199810827051</v>
+        <v>0.6541943698018557</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.09771818386602647</v>
+        <v>0.1464452615697857</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1178611951578318</v>
+        <v>0.5997338700898747</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.816611027847854</v>
+        <v>0.4926552825740285</v>
       </c>
       <c r="B24" t="n">
-        <v>2.49066734251912</v>
+        <v>1.48604415655835</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4923995878648494</v>
+        <v>0.1871431058305969</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4610864674229639</v>
+        <v>0.8648687431248027</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.395750204107996</v>
+        <v>0.1983401619942222</v>
       </c>
       <c r="B26" t="n">
-        <v>0.351737568434537</v>
+        <v>0.8108062811009547</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2621524647194347</v>
+        <v>0.1651251850079683</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2286393279397741</v>
+        <v>0.8084534768575925</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.084084163776644</v>
+        <v>0.2526248107964501</v>
       </c>
       <c r="B28" t="n">
-        <v>1.00622900372775</v>
+        <v>0.9793326399019312</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.131967679370718</v>
+        <v>0.4967340905935939</v>
       </c>
       <c r="B29" t="n">
-        <v>2.984238003363966</v>
+        <v>1.775261013530262</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9373282732765482</v>
+        <v>0.2009742246634456</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9195194641996478</v>
+        <v>0.8717028225393485</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.1880244356460852</v>
+        <v>0.1452663335356389</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2362921008368446</v>
+        <v>0.7667251077268459</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7453214117702107</v>
+        <v>0.1899424260748209</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7240596194687978</v>
+        <v>0.94688004082663</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8964242797163673</v>
+        <v>0.1544143789761281</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8965254646338652</v>
+        <v>0.8648494824412244</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.6170075654251512</v>
+        <v>0.1619851865203062</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6779758535814775</v>
+        <v>0.5718722349013543</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8391902462212946</v>
+        <v>0.2298942641507961</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8252144018428947</v>
+        <v>0.9897824747023484</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8014658280754199</v>
+        <v>0.1243596249140015</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7931265319031682</v>
+        <v>0.7094959198679706</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7766449931740114</v>
+        <v>0.1529327512689476</v>
       </c>
       <c r="B37" t="n">
-        <v>0.75956532654373</v>
+        <v>0.4530093282735353</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7129139495061386</v>
+        <v>0.4256308219826961</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6991979563485491</v>
+        <v>1.789954057665833</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6140641152750667</v>
+        <v>-0.06048092184775992</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6077054569572197</v>
+        <v>-0.2674937104707813</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8185721458311074</v>
+        <v>0.2909569427832806</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7985622905576358</v>
+        <v>0.8760650014999555</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5675533018579203</v>
+        <v>-0.0541572794745537</v>
       </c>
       <c r="B41" t="n">
-        <v>0.568156899749242</v>
+        <v>0.6340925617217936</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.691059349817051</v>
+        <v>0.2035924448618995</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6843012208584821</v>
+        <v>1.283976095092083</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7153201665972166</v>
+        <v>0.2816702385643747</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7083552816841903</v>
+        <v>1.223316799807898</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6985432760716296</v>
+        <v>-0.1021984228777193</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6993359517522464</v>
+        <v>0.008698262803146287</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7027957591495684</v>
+        <v>-0.1517211812434963</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7069511770426935</v>
+        <v>0.03848301755142655</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.302639063543968</v>
+        <v>-0.1933619869659879</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.293281253609326</v>
+        <v>-0.4335315117798841</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1.014065874670746</v>
+        <v>-0.1951213519254005</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.006956818884446</v>
+        <v>-0.4159742072442774</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8932093721613361</v>
+        <v>-0.2294340797431483</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8796913971279835</v>
+        <v>-0.4948604189408246</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.654763703542995</v>
+        <v>-0.2249618156876537</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6479394641139609</v>
+        <v>-0.5452151531020232</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.06039426220740204</v>
+        <v>-0.1581293522656999</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05653156732980456</v>
+        <v>-0.3072898500840027</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8685235119103351</v>
+        <v>-0.2276920389548281</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8706852513814075</v>
+        <v>-0.6322535991622147</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8685235119103351</v>
+        <v>-0.2276920389548281</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8706852513814075</v>
+        <v>-0.6322535991622147</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.146366159894634</v>
+        <v>-0.2056852645270732</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.127123758635107</v>
+        <v>-0.3886905796556319</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1945168493314224</v>
+        <v>-0.2424004902789378</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1872616957302017</v>
+        <v>-0.5583431023766643</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.02130205076652</v>
+        <v>-0.1693489412115966</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.013125909498849</v>
+        <v>-0.2922315960047137</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.9049290319961016</v>
+        <v>-0.1734219249594706</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.902630470278303</v>
+        <v>-0.3758986257486097</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1.003323559076449</v>
+        <v>-0.2286416077196036</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9740468201412441</v>
+        <v>-0.4749304832362778</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.151052868436345</v>
+        <v>-0.2299583523596593</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.148851430417934</v>
+        <v>-0.6489000043300227</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8502176584998918</v>
+        <v>-0.2746276156935938</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.841506314426969</v>
+        <v>-0.7666348964041575</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.4966039118383903</v>
+        <v>-0.3102413385994793</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4911356839594467</v>
+        <v>-0.8616696468257762</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3749889990148291</v>
+        <v>-0.2307479581955122</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3793019470590018</v>
+        <v>-0.4255184384997502</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.249883226516159</v>
+        <v>-0.188944682991689</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.208256270202233</v>
+        <v>-0.1413437493002201</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.6773768509991805</v>
+        <v>-0.3922015638036002</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.6889401156722207</v>
+        <v>-1.339698840908213</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9354554998720171</v>
+        <v>-0.2899488118154345</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9213837924601067</v>
+        <v>-0.7190782829763883</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.1130817613999088</v>
+        <v>-0.3621342162603901</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1057641617094975</v>
+        <v>-0.9567024111461377</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.7982365046474497</v>
+        <v>-0.1376608228969651</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.7934984931340289</v>
+        <v>-0.1950721145850945</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.8040727750360919</v>
+        <v>-0.1715464908605843</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7905807194477642</v>
+        <v>-0.3713392293581123</v>
       </c>
     </row>
   </sheetData>
